--- a/SATIM/DataSpreadsheets/TCH_NH3.xlsx
+++ b/SATIM/DataSpreadsheets/TCH_NH3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uctcloud-my.sharepoint.com/personal/01405439_wf_uct_ac_za/Documents/Energy Systems Research Group/Models/SATIMGE/SATIM/DataSpreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9F0FE2-7E37-46F0-9C64-A4CBA3702D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{2C9F0FE2-7E37-46F0-9C64-A4CBA3702D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{003F5407-B4B8-4594-AABA-043BDD8969D1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" firstSheet="1" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANSv2-692-Home" sheetId="9" r:id="rId1"/>
@@ -47,7 +47,6 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -223,7 +222,7 @@
     IRE seems to have a problem with TOPxx parameters in the new import templates</t>
       </text>
     </comment>
-    <comment ref="B14" authorId="1" shapeId="0" xr:uid="{85F9B755-0AF5-41A2-8DC6-C4A4FD0E8414}">
+    <comment ref="B15" authorId="1" shapeId="0" xr:uid="{85F9B755-0AF5-41A2-8DC6-C4A4FD0E8414}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -290,6 +289,7 @@
     <author>Ken Noble</author>
     <author>tc={0855C64E-F150-415A-824F-0B3CC12DAE16}</author>
     <author>tc={252CBE27-B49C-4951-9B0D-32A0755BC25A}</author>
+    <author>tc={D7E7D633-5BFC-4A1D-8F03-9916D4C40A71}</author>
     <author>tc={4BDDA6B9-3A11-4FAB-A9A3-714794A02E93}</author>
   </authors>
   <commentList>
@@ -331,7 +331,15 @@
     Assumption, this needs to be researched and updated at some point.</t>
       </text>
     </comment>
-    <comment ref="P14" authorId="4" shapeId="0" xr:uid="{4BDDA6B9-3A11-4FAB-A9A3-714794A02E93}">
+    <comment ref="AI11" authorId="4" shapeId="0" xr:uid="{D7E7D633-5BFC-4A1D-8F03-9916D4C40A71}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Assumption set above marginals from other options</t>
+      </text>
+    </comment>
+    <comment ref="P15" authorId="5" shapeId="0" xr:uid="{4BDDA6B9-3A11-4FAB-A9A3-714794A02E93}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -417,7 +425,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="408">
   <si>
     <t>Comment</t>
   </si>
@@ -973,12 +981,6 @@
   </si>
   <si>
     <t>NH3</t>
-  </si>
-  <si>
-    <t>Industry Chemicals Gas</t>
-  </si>
-  <si>
-    <t>ICPGAS</t>
   </si>
   <si>
     <t>2017 Energy/Commodity Balance</t>
@@ -1719,6 +1721,18 @@
   <si>
     <t>Ammonia production linked to CTL production</t>
   </si>
+  <si>
+    <t>IMPNH3</t>
+  </si>
+  <si>
+    <t>Ammonia Imports</t>
+  </si>
+  <si>
+    <t>ICPGMU</t>
+  </si>
+  <si>
+    <t>Industry-CP-Material use Gas</t>
+  </si>
 </sst>
 </file>
 
@@ -1734,10 +1748,17 @@
     <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="66" x14ac:knownFonts="1">
+  <fonts count="67" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2682,37 +2703,37 @@
   </borders>
   <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="58" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="265">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2722,490 +2743,481 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="12" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="12"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="12" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="12" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="12" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="12" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="12" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="12" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="12" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="12" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="12" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="12" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="12" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="19"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="19"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="19" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="19" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="42" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="22" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="16" xfId="22" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" xfId="20" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="20" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="12" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="40" fillId="4" borderId="11" xfId="21" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="41" fillId="4" borderId="11" xfId="21" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="53" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="54" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="55" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="52" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="53" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="54" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="54" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="54" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="55" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="54" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="53" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="53" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="53" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="54" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="53" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="53" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="54" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="55" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="53" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="53" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="54" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="54" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="54" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="55" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="53" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="54" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="43" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="44" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="60" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="61" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="15" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="16" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="24"/>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="24"/>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="43" fillId="0" borderId="23" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="44" fillId="0" borderId="23" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="43" fillId="0" borderId="23" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="44" fillId="0" borderId="23" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="43" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="44" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="43" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="44" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="43" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="44" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="43" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="44" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="2" fontId="40" fillId="4" borderId="0" xfId="21" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="2" fontId="41" fillId="4" borderId="0" xfId="21" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3217,27 +3229,40 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" xfId="21"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Bad" xfId="21" builtinId="27"/>
@@ -3379,7 +3404,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3511,7 +3536,7 @@
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3599,7 +3624,7 @@
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3643,7 +3668,7 @@
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11151,23 +11176,23 @@
       <sheetName val="ANSv2-692-TS&amp;TID TRADE"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
       <sheetData sheetId="17">
         <row r="37">
           <cell r="W37">
@@ -11175,16 +11200,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11575,7 +11600,7 @@
   <threadedComment ref="E11" dT="2021-09-09T14:00:31.81" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{97D521C5-CA41-4B35-8078-FF5184829CD7}">
     <text>IRE seems to have a problem with TOPxx parameters in the new import templates</text>
   </threadedComment>
-  <threadedComment ref="B14" dT="2021-04-15T07:24:10.60" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{85F9B755-0AF5-41A2-8DC6-C4A4FD0E8414}">
+  <threadedComment ref="B15" dT="2021-04-15T07:24:10.60" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{85F9B755-0AF5-41A2-8DC6-C4A4FD0E8414}">
     <text>This should be in BASE?</text>
   </threadedComment>
 </ThreadedComments>
@@ -11592,7 +11617,10 @@
   <threadedComment ref="AI9" dT="2021-09-09T14:02:02.26" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{252CBE27-B49C-4951-9B0D-32A0755BC25A}">
     <text>Assumption, this needs to be researched and updated at some point.</text>
   </threadedComment>
-  <threadedComment ref="P14" dT="2021-09-13T15:28:01.53" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{4BDDA6B9-3A11-4FAB-A9A3-714794A02E93}">
+  <threadedComment ref="AI11" dT="2022-02-23T09:46:30.42" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{D7E7D633-5BFC-4A1D-8F03-9916D4C40A71}">
+    <text>Assumption set above marginals from other options</text>
+  </threadedComment>
+  <threadedComment ref="P15" dT="2021-09-13T15:28:01.53" personId="{B1B3113A-9AEB-4223-A956-A0CFC873B37D}" id="{4BDDA6B9-3A11-4FAB-A9A3-714794A02E93}">
     <text>Made equal to H2 based plant until better info is found.</text>
   </threadedComment>
 </ThreadedComments>
@@ -11665,52 +11693,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="12289" r:id="rId4" name="cmdUpdate">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon"/>
+        <control shapeId="12289" r:id="rId4" name="cmdUpdate"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId7">
+        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon"/>
+        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11740,52 +11768,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet"/>
+        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12289" r:id="rId12" name="cmdUpdate">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId13">
+        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12289" r:id="rId12" name="cmdUpdate"/>
+        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11847,19 +11875,44 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -11867,32 +11920,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90113" r:id="rId6" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90113" r:id="rId6" name="cmdAddParameter"/>
+        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11922,19 +11950,44 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1">
+        <control shapeId="90113" r:id="rId10" name="cmdAddParameter">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90113" r:id="rId10" name="cmdAddParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -11942,32 +11995,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet"/>
+        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12079,52 +12107,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126977" r:id="rId4" name="cmdAddParameter">
+        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126977" r:id="rId4" name="cmdAddParameter"/>
+        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc">
+        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc"/>
+        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -12154,52 +12182,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet">
+        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet"/>
+        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2">
+        <control shapeId="126977" r:id="rId12" name="cmdAddParameter">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2"/>
+        <control shapeId="126977" r:id="rId12" name="cmdAddParameter"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12211,11 +12239,11 @@
   <sheetPr codeName="Sheet18">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -12334,110 +12362,117 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="53" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A13" s="58" t="s">
+    <row r="13" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>405</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="66" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="53" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A14" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-    </row>
-    <row r="14" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50" t="s">
-        <v>237</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="D14" s="29" t="s">
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="50"/>
+      <c r="B15" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E15" s="66" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="53" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
+    <row r="16" spans="1:10" s="53" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A16" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-    </row>
-    <row r="16" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50" t="str">
-        <f>EB_Exist!C4</f>
-        <v>ICPGASNH3-E</v>
-      </c>
-      <c r="C16" s="50" t="str">
-        <f>EB_Exist!D4</f>
-        <v>Existing Ammonia Plant - Gas</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="66" t="s">
-        <v>133</v>
-      </c>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
     </row>
     <row r="17" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="50"/>
       <c r="B17" s="50" t="str">
+        <f>EB_Exist!C4</f>
+        <v>ICPGASNH3-E</v>
+      </c>
+      <c r="C17" s="50" t="str">
+        <f>EB_Exist!D4</f>
+        <v>Existing Ammonia Plant - Gas</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="66" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="50"/>
+      <c r="B18" s="50" t="str">
         <f>RES!M15</f>
         <v>ICPHGNNH3-N</v>
       </c>
-      <c r="C17" s="50" t="str">
+      <c r="C18" s="50" t="str">
         <f>RES!M12</f>
         <v>New Ammonia Plant - H2</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D18" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E18" s="66" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="53" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A18" s="58" t="s">
+    <row r="19" spans="1:10" s="53" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A19" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-    </row>
-    <row r="19" spans="1:10" s="53" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A19" s="59"/>
-      <c r="B19" s="242" t="s">
-        <v>404</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>405</v>
-      </c>
-      <c r="D19" s="243" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" s="243" t="s">
-        <v>133</v>
-      </c>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
     </row>
     <row r="20" spans="1:10" s="53" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="58"/>
+      <c r="B20" s="242" t="s">
+        <v>402</v>
+      </c>
+      <c r="C20" s="242" t="s">
+        <v>403</v>
+      </c>
+      <c r="D20" s="243" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="243" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="21" spans="1:10" s="53" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A21" s="59"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="58"/>
     </row>
     <row r="22" spans="1:10" s="53" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A22" s="59"/>
@@ -12469,17 +12504,17 @@
     </row>
     <row r="26" spans="1:10" s="53" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A26" s="59"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
     </row>
     <row r="27" spans="1:10" s="53" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A27" s="59"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:10" s="53" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A28" s="59"/>
@@ -12502,28 +12537,23 @@
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
     </row>
-    <row r="31" spans="1:10" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" s="53" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A31" s="59"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-    </row>
-    <row r="32" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="60"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+    </row>
+    <row r="32" spans="1:10" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="59"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
     </row>
     <row r="33" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="60"/>
@@ -12562,7 +12592,7 @@
       <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
       <c r="D36" s="29"/>
@@ -12573,23 +12603,28 @@
       <c r="I36" s="29"/>
       <c r="J36" s="29"/>
     </row>
-    <row r="37" spans="1:10" s="53" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="60"/>
+    <row r="37" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="19"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="29"/>
       <c r="E37" s="29"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-    </row>
-    <row r="38" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="19"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+    </row>
+    <row r="38" spans="1:10" s="53" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="60"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
       <c r="D38" s="29"/>
       <c r="E38" s="29"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
     </row>
     <row r="39" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="60"/>
@@ -12597,11 +12632,6 @@
       <c r="C39" s="22"/>
       <c r="D39" s="29"/>
       <c r="E39" s="29"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
     </row>
     <row r="40" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="60"/>
@@ -12627,24 +12657,29 @@
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
     </row>
-    <row r="42" spans="1:10" s="53" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="60"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
       <c r="D42" s="29"/>
       <c r="E42" s="29"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-    </row>
-    <row r="43" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F42" s="56"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+    </row>
+    <row r="43" spans="1:10" s="53" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="60"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
     </row>
     <row r="44" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="60"/>
@@ -12652,11 +12687,6 @@
       <c r="C44" s="22"/>
       <c r="D44" s="29"/>
       <c r="E44" s="29"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
     </row>
     <row r="45" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="60"/>
@@ -12664,18 +12694,23 @@
       <c r="C45" s="22"/>
       <c r="D45" s="29"/>
       <c r="E45" s="29"/>
-      <c r="F45" s="56"/>
+      <c r="F45" s="19"/>
       <c r="G45" s="48"/>
       <c r="H45" s="48"/>
       <c r="I45" s="29"/>
       <c r="J45" s="29"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="60"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="60"/>
@@ -12683,6 +12718,13 @@
       <c r="C47" s="22"/>
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="60"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12693,18 +12735,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="128003" r:id="rId4" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -12713,7 +12755,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="128003" r:id="rId4" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -12743,18 +12785,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128003" r:id="rId8" name="cmdProcUnits">
+        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -12763,7 +12805,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128003" r:id="rId8" name="cmdProcUnits"/>
+        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12849,43 +12891,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -12894,32 +12911,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet"/>
+        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="113666" r:id="rId6" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1"/>
+        <control shapeId="113666" r:id="rId6" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113667" r:id="rId8" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113667" r:id="rId8" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -12949,18 +12991,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113667" r:id="rId12" name="cmdCommOUT">
+        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -12969,57 +13036,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113667" r:id="rId12" name="cmdCommOUT"/>
+        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113666" r:id="rId14" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113666" r:id="rId14" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc"/>
+        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -13153,18 +13195,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="130049" r:id="rId4" name="cmdTechNameAndDesc">
+        <control shapeId="130055" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="130055" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="130054" r:id="rId6" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>628650</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -13173,57 +13240,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="130049" r:id="rId4" name="cmdTechNameAndDesc"/>
+        <control shapeId="130054" r:id="rId6" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="130050" r:id="rId6" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="130053" r:id="rId8" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="130050" r:id="rId6" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="130051" r:id="rId8" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="130051" r:id="rId8" name="cmdCommOUT"/>
+        <control shapeId="130053" r:id="rId8" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -13253,43 +13295,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="130053" r:id="rId12" name="cmdAddParamQualifier1">
+        <control shapeId="130051" r:id="rId12" name="cmdCommOUT">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="130053" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="130054" r:id="rId14" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -13298,32 +13315,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="130054" r:id="rId14" name="cmdCheckTechDataSheet"/>
+        <control shapeId="130051" r:id="rId12" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="130055" r:id="rId16" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+        <control shapeId="130050" r:id="rId14" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="130055" r:id="rId16" name="cmdAddParamQualifier2"/>
+        <control shapeId="130050" r:id="rId14" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="130049" r:id="rId16" name="cmdTechNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>628650</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="130049" r:id="rId16" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -13335,13 +13377,13 @@
   <sheetPr codeName="Sheet30">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:AI21"/>
+  <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="7" topLeftCell="AC8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="7" topLeftCell="S8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13384,7 +13426,7 @@
       </c>
       <c r="H2" s="50"/>
       <c r="I2" s="53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J2" s="53"/>
       <c r="K2" s="53"/>
@@ -13422,28 +13464,28 @@
         <v>174</v>
       </c>
       <c r="P3" s="134" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q3" s="134" t="s">
         <v>163</v>
       </c>
       <c r="R3" s="134" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="S3" s="134" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="T3" s="134" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="U3" s="134" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="V3" s="134" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="W3" s="134" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="X3" s="134" t="s">
         <v>160</v>
@@ -13467,7 +13509,7 @@
         <v>158</v>
       </c>
       <c r="AI3" s="239" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13500,28 +13542,28 @@
         <v>175</v>
       </c>
       <c r="P4" s="66" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q4" s="66" t="s">
         <v>164</v>
       </c>
       <c r="R4" s="66" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="S4" s="66" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="T4" s="66" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="U4" s="66" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="V4" s="66" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="W4" s="66" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="X4" s="66" t="s">
         <v>124</v>
@@ -13557,7 +13599,7 @@
         <v>154</v>
       </c>
       <c r="AI4" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13594,27 +13636,27 @@
         <v>126</v>
       </c>
       <c r="AC5" s="26" t="str">
-        <f>F17</f>
+        <f>F18</f>
         <v>NH3</v>
       </c>
       <c r="AD5" s="12" t="str">
-        <f>E14</f>
-        <v>ICPGAS</v>
+        <f>E15</f>
+        <v>ICPGMU</v>
       </c>
       <c r="AE5" s="12" t="str">
-        <f>E15</f>
+        <f>E16</f>
         <v>ICPELC</v>
       </c>
       <c r="AF5" s="12" t="str">
-        <f>E16</f>
+        <f>E17</f>
         <v>INDCLE</v>
       </c>
       <c r="AG5" s="12" t="str">
-        <f>E19</f>
+        <f>E20</f>
         <v>INDHGN</v>
       </c>
       <c r="AH5" s="12" t="str">
-        <f>F21</f>
+        <f>F22</f>
         <v>NH3</v>
       </c>
     </row>
@@ -13731,7 +13773,7 @@
         <v>NH3</v>
       </c>
       <c r="F9" s="141" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G9" s="63"/>
       <c r="H9" s="65">
@@ -13806,50 +13848,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:35" s="53" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="58" t="str">
-        <f>Processes_BASE!A13</f>
+    <row r="11" spans="1:35" s="53" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="50"/>
+      <c r="B11" s="50" t="str">
+        <f>Processes_BASE!B13</f>
+        <v>IMPNH3</v>
+      </c>
+      <c r="C11" s="50" t="str">
+        <f>Processes_BASE!C13</f>
+        <v>Ammonia Imports</v>
+      </c>
+      <c r="D11" s="50" t="str">
+        <f>Processes_BASE!D13</f>
+        <v>PJ,PJa</v>
+      </c>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141" t="str">
+        <f>E10</f>
+        <v>NH3</v>
+      </c>
+      <c r="G11" s="63"/>
+      <c r="H11" s="53">
+        <v>1</v>
+      </c>
+      <c r="P11" s="130"/>
+      <c r="Q11" s="130"/>
+      <c r="R11" s="130"/>
+      <c r="S11" s="130">
+        <v>2025</v>
+      </c>
+      <c r="T11" s="130"/>
+      <c r="U11" s="130"/>
+      <c r="V11" s="130"/>
+      <c r="W11" s="130"/>
+      <c r="X11" s="53">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="129"/>
+      <c r="Z11" s="129"/>
+      <c r="AA11" s="129"/>
+      <c r="AB11" s="129"/>
+      <c r="AC11" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="264">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" s="53" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="58" t="str">
+        <f>Processes_BASE!A14</f>
         <v>* Fuel Supply Technologies</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="135"/>
-      <c r="L11" s="135"/>
-      <c r="M11" s="135"/>
-      <c r="N11" s="135"/>
-      <c r="O11" s="135"/>
-    </row>
-    <row r="12" spans="1:35" s="53" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50" t="str">
-        <f>Processes_BASE!B14</f>
-        <v>XINDHGN</v>
-      </c>
-      <c r="C12" s="50" t="str">
-        <f>Processes_BASE!C14</f>
-        <v>Industry Sector Hydrogen</v>
-      </c>
-      <c r="D12" s="50" t="str">
-        <f>Processes_BASE!D14</f>
-        <v>PJ,PJa</v>
-      </c>
-      <c r="E12" s="141" t="str">
-        <f>Commodities_BASE!B13</f>
-        <v>HGN</v>
-      </c>
-      <c r="F12" s="141" t="str">
-        <f>RES!G2</f>
-        <v>INDHGN</v>
-      </c>
+      <c r="B12" s="50"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
       <c r="G12" s="63"/>
-      <c r="H12" s="135">
-        <v>1</v>
-      </c>
+      <c r="H12" s="135"/>
       <c r="I12" s="135"/>
       <c r="J12" s="135"/>
       <c r="K12" s="135"/>
@@ -13857,146 +13912,149 @@
       <c r="M12" s="135"/>
       <c r="N12" s="135"/>
       <c r="O12" s="135"/>
-      <c r="P12" s="128"/>
-      <c r="Q12" s="128"/>
-      <c r="R12" s="128"/>
-      <c r="S12" s="128"/>
-      <c r="T12" s="128"/>
-      <c r="U12" s="128"/>
-      <c r="V12" s="128"/>
-      <c r="W12" s="128"/>
-      <c r="X12" s="53">
+    </row>
+    <row r="13" spans="1:35" s="53" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="50"/>
+      <c r="B13" s="50" t="str">
+        <f>Processes_BASE!B15</f>
+        <v>XINDHGN</v>
+      </c>
+      <c r="C13" s="50" t="str">
+        <f>Processes_BASE!C15</f>
+        <v>Industry Sector Hydrogen</v>
+      </c>
+      <c r="D13" s="50" t="str">
+        <f>Processes_BASE!D15</f>
+        <v>PJ,PJa</v>
+      </c>
+      <c r="E13" s="141" t="str">
+        <f>Commodities_BASE!B13</f>
+        <v>HGN</v>
+      </c>
+      <c r="F13" s="141" t="str">
+        <f>RES!G2</f>
+        <v>INDHGN</v>
+      </c>
+      <c r="G13" s="63"/>
+      <c r="H13" s="135">
         <v>1</v>
       </c>
-      <c r="Y12" s="143"/>
-      <c r="Z12" s="128"/>
-    </row>
-    <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="58" t="str">
-        <f>Processes_BASE!A15</f>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="135"/>
+      <c r="P13" s="128"/>
+      <c r="Q13" s="128"/>
+      <c r="R13" s="128"/>
+      <c r="S13" s="128"/>
+      <c r="T13" s="128"/>
+      <c r="U13" s="128"/>
+      <c r="V13" s="128"/>
+      <c r="W13" s="128"/>
+      <c r="X13" s="53">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="143"/>
+      <c r="Z13" s="128"/>
+    </row>
+    <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="58" t="str">
+        <f>Processes_BASE!A16</f>
         <v>* Conversion technologies</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="141"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="136"/>
-      <c r="M13" s="136"/>
-      <c r="N13" s="136"/>
-      <c r="O13" s="136"/>
-    </row>
-    <row r="14" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="50" t="str">
-        <f>Processes_BASE!B16</f>
+      <c r="B14" s="50"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="141"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+    </row>
+    <row r="15" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="50" t="str">
+        <f>Processes_BASE!B17</f>
         <v>ICPGASNH3-E</v>
       </c>
-      <c r="C14" s="50" t="str">
-        <f>Processes_BASE!C16</f>
+      <c r="C15" s="50" t="str">
+        <f>Processes_BASE!C17</f>
         <v>Existing Ammonia Plant - Gas</v>
       </c>
-      <c r="D14" s="50" t="str">
-        <f>Processes_BASE!D16</f>
+      <c r="D15" s="50" t="str">
+        <f>Processes_BASE!D17</f>
         <v>PJ,PJa</v>
       </c>
-      <c r="E14" s="142" t="str">
+      <c r="E15" s="142" t="str">
         <f>RES!E2</f>
-        <v>ICPGAS</v>
-      </c>
-      <c r="F14" s="142"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136">
+        <v>ICPGMU</v>
+      </c>
+      <c r="F15" s="142"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136">
         <f>EB_Exist!K5</f>
         <v>6.1380000000000008</v>
       </c>
-      <c r="J14" s="136">
-        <f>I14</f>
+      <c r="J15" s="136">
+        <f>I15</f>
         <v>6.1380000000000008</v>
       </c>
-      <c r="K14" s="136">
-        <f>J14</f>
+      <c r="K15" s="136">
+        <f>J15</f>
         <v>6.1380000000000008</v>
       </c>
-      <c r="L14" s="136">
-        <f>K14</f>
+      <c r="L15" s="136">
+        <f>K15</f>
         <v>6.1380000000000008</v>
       </c>
-      <c r="M14" s="136">
+      <c r="M15" s="136">
         <v>0</v>
       </c>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="241">
-        <f>P18</f>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="241">
+        <f>P19</f>
         <v>20689.17767568148</v>
       </c>
-      <c r="Q14" s="241">
-        <f t="shared" ref="Q14:U14" si="0">Q18</f>
+      <c r="Q15" s="241">
+        <f t="shared" ref="Q15:U15" si="0">Q19</f>
         <v>388.42755940800004</v>
       </c>
-      <c r="R14" s="241">
+      <c r="R15" s="241">
         <f t="shared" si="0"/>
         <v>176.54175110265922</v>
       </c>
-      <c r="S14" s="12"/>
-      <c r="T14" s="241">
+      <c r="S15" s="12"/>
+      <c r="T15" s="241">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="U14" s="241">
+      <c r="U15" s="241">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="X14" s="12">
+      <c r="X15" s="12">
         <v>1</v>
       </c>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AE14" s="12"/>
-    </row>
-    <row r="15" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="E15" s="142" t="str">
-        <f>RES!F2</f>
-        <v>ICPELC</v>
-      </c>
-      <c r="F15" s="142"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
       <c r="AB15" s="12"/>
-      <c r="AE15" s="45">
-        <f>EB_Exist!AD16</f>
-        <v>5.7624113475177301E-3</v>
-      </c>
+      <c r="AE15" s="12"/>
     </row>
     <row r="16" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
-      <c r="E16" s="141" t="str">
-        <f>RES!H2</f>
-        <v>INDCLE</v>
-      </c>
+      <c r="E16" s="142" t="str">
+        <f>RES!F2</f>
+        <v>ICPELC</v>
+      </c>
+      <c r="F16" s="142"/>
       <c r="H16" s="136"/>
       <c r="I16" s="136"/>
       <c r="J16" s="136"/>
@@ -14017,20 +14075,16 @@
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
       <c r="AB16" s="12"/>
-      <c r="AF16" s="45">
-        <f>EB_Exist!K10/EB_Exist!K5</f>
-        <v>1.5053763440860212E-2</v>
+      <c r="AE16" s="45">
+        <f>EB_Exist!AD16</f>
+        <v>5.7624113475177301E-3</v>
       </c>
     </row>
     <row r="17" spans="1:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="141" t="str">
-        <f>RES!O2</f>
-        <v>NH3</v>
+      <c r="E17" s="141" t="str">
+        <f>RES!H2</f>
+        <v>INDCLE</v>
       </c>
       <c r="H17" s="136"/>
       <c r="I17" s="136"/>
@@ -14039,140 +14093,144 @@
       <c r="L17" s="136"/>
       <c r="M17" s="136"/>
       <c r="N17" s="136"/>
-      <c r="O17" s="144">
-        <v>3</v>
-      </c>
+      <c r="O17" s="136"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
-      <c r="V17" s="131">
-        <f>EB_Exist!K13/EB_Exist!K5</f>
-        <v>39.331215379602469</v>
-      </c>
-      <c r="W17" s="131">
-        <f>EB_Exist!K14/EB_Exist!K5</f>
-        <v>1.2971652003910066</v>
-      </c>
-      <c r="X17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
-      <c r="AC17" s="45">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="137">
-        <f>EB_Exist!K8/EB_Exist!K5</f>
-        <v>1.5053763440860213</v>
+      <c r="AF17" s="45">
+        <f>EB_Exist!K10/EB_Exist!K5</f>
+        <v>1.5053763440860212E-2</v>
       </c>
     </row>
     <row r="18" spans="1:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
-      <c r="B18" s="50" t="str">
-        <f>RES!M15</f>
-        <v>ICPHGNNH3-N</v>
-      </c>
-      <c r="C18" s="50" t="str">
-        <f>RES!M12</f>
-        <v>New Ammonia Plant - H2</v>
-      </c>
-      <c r="D18" s="50" t="str">
-        <f>Processes_BASE!D17</f>
-        <v>PJ,PJa</v>
-      </c>
-      <c r="E18" s="142" t="str">
-        <f>RES!F2</f>
-        <v>ICPELC</v>
-      </c>
-      <c r="F18" s="141"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="141" t="str">
+        <f>RES!O2</f>
+        <v>NH3</v>
+      </c>
       <c r="H18" s="136"/>
       <c r="I18" s="136"/>
       <c r="J18" s="136"/>
       <c r="K18" s="136"/>
       <c r="L18" s="136"/>
       <c r="M18" s="136"/>
-      <c r="N18" s="145"/>
-      <c r="P18" s="236">
-        <f>EB_Exist!T39</f>
-        <v>20689.17767568148</v>
-      </c>
-      <c r="Q18" s="236">
-        <f>EB_Exist!T40</f>
-        <v>388.42755940800004</v>
-      </c>
-      <c r="R18" s="236">
-        <f>EB_Exist!T41</f>
-        <v>176.54175110265922</v>
-      </c>
-      <c r="S18" s="12">
-        <v>2030</v>
-      </c>
-      <c r="T18" s="12">
-        <f>-EB_Exist!T32</f>
-        <v>-3</v>
-      </c>
-      <c r="U18" s="12">
-        <f>EB_Exist!T31</f>
-        <v>25</v>
-      </c>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12">
-        <v>1</v>
-      </c>
+      <c r="N18" s="136"/>
+      <c r="O18" s="144">
+        <v>3</v>
+      </c>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="131">
+        <f>EB_Exist!K13/EB_Exist!K5</f>
+        <v>39.331215379602469</v>
+      </c>
+      <c r="W18" s="131">
+        <f>EB_Exist!K14/EB_Exist!K5</f>
+        <v>1.2971652003910066</v>
+      </c>
+      <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
-      <c r="AE18" s="45">
-        <f>EB_Exist!AD16</f>
-        <v>5.7624113475177301E-3</v>
+      <c r="AC18" s="45">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="137">
+        <f>EB_Exist!K8/EB_Exist!K5</f>
+        <v>1.5053763440860213</v>
       </c>
     </row>
     <row r="19" spans="1:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="50" t="str">
+        <f>RES!M15</f>
+        <v>ICPHGNNH3-N</v>
+      </c>
+      <c r="C19" s="50" t="str">
+        <f>RES!M12</f>
+        <v>New Ammonia Plant - H2</v>
+      </c>
+      <c r="D19" s="50" t="str">
+        <f>Processes_BASE!D18</f>
+        <v>PJ,PJa</v>
+      </c>
       <c r="E19" s="142" t="str">
-        <f>RES!G2</f>
-        <v>INDHGN</v>
+        <f>RES!F2</f>
+        <v>ICPELC</v>
       </c>
       <c r="F19" s="141"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="136"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="145"/>
+      <c r="P19" s="236">
+        <f>EB_Exist!T39</f>
+        <v>20689.17767568148</v>
+      </c>
+      <c r="Q19" s="236">
+        <f>EB_Exist!T40</f>
+        <v>388.42755940800004</v>
+      </c>
+      <c r="R19" s="236">
+        <f>EB_Exist!T41</f>
+        <v>176.54175110265922</v>
+      </c>
+      <c r="S19" s="12">
+        <v>2030</v>
+      </c>
+      <c r="T19" s="12">
+        <f>-EB_Exist!T32</f>
+        <v>-3</v>
+      </c>
+      <c r="U19" s="12">
+        <f>EB_Exist!T31</f>
+        <v>25</v>
+      </c>
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
+      <c r="X19" s="12">
+        <v>1</v>
+      </c>
       <c r="Y19" s="12"/>
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="12"/>
-      <c r="AG19" s="45">
-        <f>EB_Exist!AD59</f>
-        <v>1.1634641635177441</v>
+      <c r="AE19" s="45">
+        <f>EB_Exist!AD16</f>
+        <v>5.7624113475177301E-3</v>
       </c>
     </row>
     <row r="20" spans="1:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
-      <c r="F20" s="142" t="str">
-        <f>RES!O2</f>
-        <v>NH3</v>
-      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="142" t="str">
+        <f>RES!G2</f>
+        <v>INDHGN</v>
+      </c>
+      <c r="F20" s="141"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -14189,38 +14247,19 @@
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
-      <c r="X20" s="12">
-        <v>1</v>
-      </c>
       <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
-      <c r="AC20" s="45">
-        <v>1</v>
+      <c r="AG20" s="45">
+        <f>EB_Exist!AD59</f>
+        <v>1.1634641635177441</v>
       </c>
     </row>
     <row r="21" spans="1:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="12" t="str">
-        <f>Processes_BASE!B19</f>
-        <v>UCTLNH3-E</v>
-      </c>
-      <c r="C21" s="12" t="str">
-        <f>Processes_BASE!C19</f>
-        <v>Ammonia production linked to CTL production</v>
-      </c>
-      <c r="D21" s="12" t="str">
-        <f>Processes_BASE!D19</f>
-        <v>PJ,PJa</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>403</v>
-      </c>
+      <c r="A21" s="12"/>
       <c r="F21" s="142" t="str">
-        <f>F20</f>
+        <f>RES!O2</f>
         <v>NH3</v>
       </c>
       <c r="H21" s="12"/>
@@ -14239,12 +14278,62 @@
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
+      <c r="X21" s="12">
+        <v>1</v>
+      </c>
       <c r="Y21" s="12"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
-      <c r="AH21" s="45">
+      <c r="AC21" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="12" t="str">
+        <f>Processes_BASE!B20</f>
+        <v>UCTLNH3-E</v>
+      </c>
+      <c r="C22" s="12" t="str">
+        <f>Processes_BASE!C20</f>
+        <v>Ammonia production linked to CTL production</v>
+      </c>
+      <c r="D22" s="12" t="str">
+        <f>Processes_BASE!D20</f>
+        <v>PJ,PJa</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="F22" s="142" t="str">
+        <f>F21</f>
+        <v>NH3</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AH22" s="45">
         <f>EB_Exist!F7/EB_Exist!C7</f>
         <v>1.9991974547851756E-2</v>
       </c>
@@ -14258,43 +14347,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157703" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="157697" r:id="rId4" name="cmdTechNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="157703" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="157702" r:id="rId6" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>847725</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -14303,32 +14367,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157702" r:id="rId6" name="cmdCheckTechDataSheet"/>
+        <control shapeId="157697" r:id="rId4" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157701" r:id="rId8" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="157698" r:id="rId6" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157701" r:id="rId8" name="cmdAddParamQualifier1"/>
+        <control shapeId="157698" r:id="rId6" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="157699" r:id="rId8" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="157699" r:id="rId8" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14358,18 +14447,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157699" r:id="rId12" name="cmdCommOUT">
+        <control shapeId="157701" r:id="rId12" name="cmdAddParamQualifier1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="157701" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="157702" r:id="rId14" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -14378,57 +14492,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157699" r:id="rId12" name="cmdCommOUT"/>
+        <control shapeId="157702" r:id="rId14" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157698" r:id="rId14" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="157703" r:id="rId16" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157698" r:id="rId14" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="157697" r:id="rId16" name="cmdTechNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>847725</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="157697" r:id="rId16" name="cmdTechNameAndDesc"/>
+        <control shapeId="157703" r:id="rId16" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -14786,8 +14875,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102402" r:id="rId6" name="cmdProcName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102402" r:id="rId6" name="cmdProcName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102403" r:id="rId8" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102403" r:id="rId8" name="cmdAddParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102407" r:id="rId14" name="cmdCommName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102407" r:id="rId14" name="cmdCommName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -14806,182 +15070,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102407" r:id="rId8" name="cmdCommName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102407" r:id="rId8" name="cmdCommName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102403" r:id="rId14" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102403" r:id="rId14" name="cmdAddParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102402" r:id="rId16" name="cmdProcName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102402" r:id="rId16" name="cmdProcName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc"/>
+        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15124,7 +15213,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -15133,8 +15222,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -15153,82 +15317,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet"/>
+        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15296,7 +15385,7 @@
       <c r="R7" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -15305,8 +15394,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -15325,232 +15639,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears"/>
+        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15608,7 +15697,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -15617,8 +15706,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6">
+        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -15637,182 +15901,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet"/>
+        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -16036,7 +16125,7 @@
       <c r="R7" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
@@ -16044,8 +16133,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode">
+        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>847725</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>857250</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -16064,232 +16378,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>847725</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears"/>
+        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -16371,7 +16460,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
@@ -16379,8 +16468,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet">
+        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>838200</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -16399,232 +16713,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>838200</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears"/>
+        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -16695,7 +16784,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -16704,8 +16793,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6">
+        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -16724,182 +16988,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet"/>
+        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -16979,7 +17068,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -16988,8 +17077,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode">
+        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
@@ -17008,232 +17322,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears"/>
+        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17247,12 +17336,12 @@
   </sheetPr>
   <dimension ref="C1:AE105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="W2" sqref="W2"/>
       <selection pane="topRight" activeCell="W2" sqref="W2"/>
       <selection pane="bottomLeft" activeCell="W2" sqref="W2"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17283,22 +17372,22 @@
         <v>129</v>
       </c>
       <c r="U1" s="156" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="3:31" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="74"/>
-      <c r="E2" s="157" t="s">
-        <v>186</v>
+      <c r="E2" s="263" t="s">
+        <v>406</v>
       </c>
       <c r="F2" s="157" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G2" s="157" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" s="157" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="157" t="s">
-        <v>192</v>
       </c>
       <c r="I2" s="157"/>
       <c r="J2" s="98"/>
@@ -17309,14 +17398,14 @@
         <v>184</v>
       </c>
       <c r="P2" s="157" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="U2" s="157"/>
       <c r="V2" s="157" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="W2" s="157" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="X2" s="102"/>
       <c r="Y2" s="98"/>
@@ -17327,17 +17416,17 @@
       <c r="C3" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="157" t="s">
-        <v>185</v>
+      <c r="E3" s="263" t="s">
+        <v>407</v>
       </c>
       <c r="F3" s="157" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G3" s="157" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H3" s="157" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I3" s="157"/>
       <c r="J3" s="98"/>
@@ -17350,14 +17439,14 @@
         <v>183</v>
       </c>
       <c r="P3" s="157" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="U3" s="157"/>
       <c r="V3" s="238" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="W3" s="157" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="X3" s="157"/>
       <c r="Y3" s="98"/>
@@ -17394,7 +17483,7 @@
       <c r="K5" s="86"/>
       <c r="L5" s="80"/>
       <c r="M5" s="88" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="N5" s="86"/>
       <c r="O5" s="80"/>
@@ -17482,7 +17571,7 @@
       <c r="R8" s="81"/>
       <c r="S8" s="79"/>
       <c r="T8" s="87" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="U8" s="76"/>
       <c r="V8" s="76"/>
@@ -17508,13 +17597,13 @@
       <c r="K9" s="75"/>
       <c r="L9" s="72"/>
       <c r="M9" s="158" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N9" s="72"/>
       <c r="O9" s="71"/>
       <c r="P9" s="78"/>
       <c r="T9" s="158" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="U9" s="71"/>
       <c r="V9" s="71"/>
@@ -17570,7 +17659,7 @@
       <c r="R11" s="81"/>
       <c r="S11" s="79"/>
       <c r="T11" s="87" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U11" s="73"/>
       <c r="V11" s="71"/>
@@ -17593,13 +17682,13 @@
       <c r="K12" s="86"/>
       <c r="L12" s="80"/>
       <c r="M12" s="88" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="N12" s="86"/>
       <c r="O12" s="80"/>
       <c r="P12" s="73"/>
       <c r="T12" s="158" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="U12" s="73"/>
       <c r="V12" s="71"/>
@@ -17650,7 +17739,7 @@
       <c r="R14" s="81"/>
       <c r="S14" s="79"/>
       <c r="T14" s="87" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="U14" s="76"/>
       <c r="V14" s="80"/>
@@ -17672,13 +17761,13 @@
       <c r="K15" s="75"/>
       <c r="L15" s="72"/>
       <c r="M15" s="158" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N15" s="74"/>
       <c r="O15" s="72"/>
       <c r="P15" s="73"/>
       <c r="T15" s="158" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="U15" s="71"/>
       <c r="V15" s="71"/>
@@ -17745,7 +17834,7 @@
       <c r="K18" s="75"/>
       <c r="L18" s="72"/>
       <c r="M18" s="88" t="str">
-        <f>Processes_BASE!C19</f>
+        <f>Processes_BASE!C20</f>
         <v>Ammonia production linked to CTL production</v>
       </c>
       <c r="N18" s="74"/>
@@ -17844,7 +17933,7 @@
       <c r="K22" s="75"/>
       <c r="L22" s="72"/>
       <c r="M22" s="158" t="str">
-        <f>Processes_BASE!B19</f>
+        <f>Processes_BASE!B20</f>
         <v>UCTLNH3-E</v>
       </c>
       <c r="N22" s="74"/>
@@ -19594,7 +19683,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="114" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B1" s="114"/>
     </row>
@@ -19614,7 +19703,7 @@
       <c r="K2" s="109"/>
       <c r="L2" s="110"/>
       <c r="AA2" s="218" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -19704,29 +19793,29 @@
       </c>
       <c r="L4" s="110"/>
       <c r="Q4" s="159" t="s">
+        <v>202</v>
+      </c>
+      <c r="R4" s="160" t="s">
+        <v>203</v>
+      </c>
+      <c r="S4" s="160" t="s">
         <v>204</v>
-      </c>
-      <c r="R4" s="160" t="s">
-        <v>205</v>
-      </c>
-      <c r="S4" s="160" t="s">
-        <v>206</v>
       </c>
       <c r="U4" s="159"/>
       <c r="V4" s="160" t="s">
         <v>43</v>
       </c>
       <c r="W4" s="160" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="X4" s="160" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Z4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AA4" s="101" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AB4" s="237">
         <v>18.8</v>
@@ -19756,19 +19845,19 @@
         <v>6.1380000000000008</v>
       </c>
       <c r="Q5" s="161" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="R5" s="162" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="S5" s="162">
         <v>28</v>
       </c>
       <c r="U5" s="161" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="V5" s="162" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="W5" s="162">
         <v>390</v>
@@ -19777,7 +19866,7 @@
         <v>390</v>
       </c>
       <c r="AA5" s="101" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AB5">
         <f>AB4/3.6*1000</f>
@@ -19845,11 +19934,11 @@
     <row r="8" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="165" t="str">
         <f>RES!E2</f>
-        <v>ICPGAS</v>
+        <v>ICPGMU</v>
       </c>
       <c r="B8" s="123" t="str">
         <f>RES!E3</f>
-        <v>Industry Chemicals Gas</v>
+        <v>Industry-CP-Material use Gas</v>
       </c>
       <c r="C8" s="122"/>
       <c r="D8" s="123"/>
@@ -19874,16 +19963,16 @@
       <c r="L8" s="125"/>
       <c r="M8" s="101"/>
       <c r="Q8" s="161" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="R8" s="162" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S8" s="162">
         <v>38</v>
       </c>
       <c r="U8" s="161" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="V8" s="162" t="s">
         <v>118</v>
@@ -19895,10 +19984,10 @@
         <v>100</v>
       </c>
       <c r="Z8" s="101" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AA8" s="101" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AB8" s="237">
         <v>120</v>
@@ -19938,16 +20027,16 @@
         <v>148</v>
       </c>
       <c r="R9" s="162" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S9" s="162">
         <v>45</v>
       </c>
       <c r="U9" s="161" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="V9" s="228" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W9" s="162">
         <v>33.44</v>
@@ -19956,7 +20045,7 @@
         <v>11.7</v>
       </c>
       <c r="AB9" s="101" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19991,13 +20080,13 @@
       <c r="L10" s="113"/>
       <c r="M10" s="101"/>
       <c r="Q10" s="163" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="U10" s="161" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="V10" s="162" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="W10" s="162">
         <v>211.01</v>
@@ -20006,10 +20095,10 @@
         <v>189.27</v>
       </c>
       <c r="AB10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AC10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AD10">
         <f>X10/1000</f>
@@ -20044,7 +20133,7 @@
       <c r="L11" s="125"/>
       <c r="M11" s="101"/>
       <c r="U11" s="161" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="V11" s="162" t="s">
         <v>118</v>
@@ -20056,7 +20145,7 @@
         <v>93.8</v>
       </c>
       <c r="AC11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AD11">
         <f>AD10*AB8</f>
@@ -20083,7 +20172,7 @@
       <c r="L12" s="125"/>
       <c r="M12" s="101"/>
       <c r="U12" s="161" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="V12" s="162" t="s">
         <v>118</v>
@@ -20095,7 +20184,7 @@
         <v>93.8</v>
       </c>
       <c r="AC12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AD12" t="e">
         <f>AD11*AB9</f>
@@ -20104,7 +20193,7 @@
     </row>
     <row r="13" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B13" t="str">
         <f>Commodities_BASE!C20</f>
@@ -20127,7 +20216,7 @@
       <c r="L13" s="109"/>
       <c r="M13" s="101"/>
       <c r="U13" s="161" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="V13" s="162" t="s">
         <v>118</v>
@@ -20139,7 +20228,7 @@
         <v>81.8</v>
       </c>
       <c r="AC13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AD13">
         <f>AD11/AB4</f>
@@ -20148,7 +20237,7 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B14" t="str">
         <f>Commodities_BASE!C21</f>
@@ -20163,10 +20252,10 @@
       </c>
       <c r="M14" s="101"/>
       <c r="U14" s="164" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AC14" s="101" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AD14">
         <f>1/AD13</f>
@@ -20175,7 +20264,7 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="AC15" s="101" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AD15">
         <f>X5/3600</f>
@@ -20185,7 +20274,7 @@
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="M16" s="101"/>
       <c r="AC16" s="101" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AD16">
         <f>AD15/AB4</f>
@@ -20194,17 +20283,17 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="AB19" s="101" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="M20" s="101"/>
       <c r="O20" s="127"/>
       <c r="AB20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AC20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AD20">
         <f>W10/1000</f>
@@ -20213,7 +20302,7 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="AC21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AD21">
         <f>AD20*AB8</f>
@@ -20223,7 +20312,7 @@
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="M22" s="101"/>
       <c r="AC22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AD22">
         <f>AD21/AB4</f>
@@ -20232,7 +20321,7 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="AC23" s="101" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AD23">
         <f>1/AD22</f>
@@ -20245,25 +20334,25 @@
     <row r="25" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M25" s="101"/>
       <c r="Q25" s="226" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="R25" s="217">
         <v>1.05</v>
       </c>
       <c r="S25" s="227" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="M26" s="101"/>
       <c r="Q26" s="226" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="R26" s="217">
         <v>14.0997</v>
       </c>
       <c r="S26" s="227" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -20271,7 +20360,7 @@
     </row>
     <row r="28" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="170" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B28" s="170"/>
       <c r="C28" s="170"/>
@@ -20284,7 +20373,7 @@
       <c r="J28" s="170"/>
       <c r="K28" s="170"/>
       <c r="L28" s="170" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M28" s="170"/>
       <c r="N28" s="171">
@@ -20293,7 +20382,7 @@
     </row>
     <row r="29" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="168" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B29" s="170"/>
       <c r="C29" s="170"/>
@@ -20306,29 +20395,29 @@
       <c r="J29" s="170"/>
       <c r="K29" s="170"/>
       <c r="L29" s="172" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M29" s="170"/>
       <c r="N29" s="173">
         <v>115.94</v>
       </c>
       <c r="Q29" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AA29" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="260" t="s">
-        <v>252</v>
-      </c>
-      <c r="B30" s="261"/>
-      <c r="C30" s="261"/>
-      <c r="D30" s="261"/>
-      <c r="E30" s="261"/>
-      <c r="F30" s="261"/>
-      <c r="G30" s="262"/>
+      <c r="A30" s="245" t="s">
+        <v>250</v>
+      </c>
+      <c r="B30" s="246"/>
+      <c r="C30" s="246"/>
+      <c r="D30" s="246"/>
+      <c r="E30" s="246"/>
+      <c r="F30" s="246"/>
+      <c r="G30" s="247"/>
       <c r="H30" s="174"/>
       <c r="I30" s="174"/>
       <c r="J30" s="174"/>
@@ -20337,53 +20426,53 @@
       <c r="M30" s="175"/>
       <c r="N30" s="175"/>
       <c r="Q30" s="218" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="R30" s="219" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="S30" s="218"/>
       <c r="T30" s="219" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="248" t="s">
+        <v>251</v>
+      </c>
+      <c r="B31" s="249"/>
+      <c r="C31" s="250" t="s">
+        <v>252</v>
+      </c>
+      <c r="D31" s="251"/>
+      <c r="E31" s="251"/>
+      <c r="F31" s="251"/>
+      <c r="G31" s="251"/>
+      <c r="H31" s="251"/>
+      <c r="I31" s="251"/>
+      <c r="J31" s="251"/>
+      <c r="K31" s="251"/>
+      <c r="L31" s="251"/>
+      <c r="M31" s="251"/>
+      <c r="N31" s="252"/>
+      <c r="Q31" s="220" t="s">
+        <v>341</v>
+      </c>
+      <c r="R31" s="221" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="31" spans="1:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="251" t="s">
-        <v>253</v>
-      </c>
-      <c r="B31" s="252"/>
-      <c r="C31" s="256" t="s">
-        <v>254</v>
-      </c>
-      <c r="D31" s="257"/>
-      <c r="E31" s="257"/>
-      <c r="F31" s="257"/>
-      <c r="G31" s="257"/>
-      <c r="H31" s="257"/>
-      <c r="I31" s="257"/>
-      <c r="J31" s="257"/>
-      <c r="K31" s="257"/>
-      <c r="L31" s="257"/>
-      <c r="M31" s="257"/>
-      <c r="N31" s="258"/>
-      <c r="Q31" s="220" t="s">
-        <v>343</v>
-      </c>
-      <c r="R31" s="221" t="s">
-        <v>344</v>
-      </c>
       <c r="S31" s="220" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="T31" s="225">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="251" t="s">
-        <v>255</v>
-      </c>
-      <c r="B32" s="252"/>
+      <c r="A32" s="248" t="s">
+        <v>253</v>
+      </c>
+      <c r="B32" s="249"/>
       <c r="C32" s="253">
         <v>170500107</v>
       </c>
@@ -20399,25 +20488,25 @@
       <c r="M32" s="254"/>
       <c r="N32" s="255"/>
       <c r="Q32" s="220" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="R32" s="222">
         <v>546600000</v>
       </c>
       <c r="S32" s="220" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="T32" s="225">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="251" t="s">
-        <v>256</v>
-      </c>
-      <c r="B33" s="252"/>
+      <c r="A33" s="248" t="s">
+        <v>254</v>
+      </c>
+      <c r="B33" s="249"/>
       <c r="C33" s="253" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D33" s="254"/>
       <c r="E33" s="254"/>
@@ -20431,75 +20520,75 @@
       <c r="M33" s="254"/>
       <c r="N33" s="255"/>
       <c r="Q33" s="220" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="R33" s="222">
         <v>109320000</v>
       </c>
       <c r="S33" s="220" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="T33" s="225" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="251" t="s">
-        <v>258</v>
-      </c>
-      <c r="B34" s="252"/>
-      <c r="C34" s="256" t="s">
-        <v>259</v>
-      </c>
-      <c r="D34" s="257"/>
-      <c r="E34" s="257"/>
-      <c r="F34" s="257"/>
-      <c r="G34" s="257"/>
-      <c r="H34" s="257"/>
-      <c r="I34" s="257"/>
-      <c r="J34" s="257"/>
-      <c r="K34" s="257"/>
-      <c r="L34" s="257"/>
-      <c r="M34" s="257"/>
-      <c r="N34" s="258"/>
+      <c r="A34" s="248" t="s">
+        <v>256</v>
+      </c>
+      <c r="B34" s="249"/>
+      <c r="C34" s="250" t="s">
+        <v>257</v>
+      </c>
+      <c r="D34" s="251"/>
+      <c r="E34" s="251"/>
+      <c r="F34" s="251"/>
+      <c r="G34" s="251"/>
+      <c r="H34" s="251"/>
+      <c r="I34" s="251"/>
+      <c r="J34" s="251"/>
+      <c r="K34" s="251"/>
+      <c r="L34" s="251"/>
+      <c r="M34" s="251"/>
+      <c r="N34" s="252"/>
       <c r="Q34" s="223" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="R34" s="224">
         <v>655920000</v>
       </c>
       <c r="S34" s="220" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="T34" s="225">
         <v>2.85</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="251" t="s">
-        <v>260</v>
-      </c>
-      <c r="B35" s="259"/>
-      <c r="C35" s="259"/>
-      <c r="D35" s="259"/>
-      <c r="E35" s="259"/>
-      <c r="F35" s="259"/>
-      <c r="G35" s="259"/>
-      <c r="H35" s="259"/>
-      <c r="I35" s="259"/>
-      <c r="J35" s="259"/>
-      <c r="K35" s="259"/>
-      <c r="L35" s="259"/>
-      <c r="M35" s="259"/>
-      <c r="N35" s="252"/>
+      <c r="A35" s="248" t="s">
+        <v>258</v>
+      </c>
+      <c r="B35" s="256"/>
+      <c r="C35" s="256"/>
+      <c r="D35" s="256"/>
+      <c r="E35" s="256"/>
+      <c r="F35" s="256"/>
+      <c r="G35" s="256"/>
+      <c r="H35" s="256"/>
+      <c r="I35" s="256"/>
+      <c r="J35" s="256"/>
+      <c r="K35" s="256"/>
+      <c r="L35" s="256"/>
+      <c r="M35" s="256"/>
+      <c r="N35" s="249"/>
       <c r="Q35" s="220" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="R35" s="222">
         <v>3279600</v>
       </c>
       <c r="S35" s="220" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="T35" s="229">
         <f>8760*T34</f>
@@ -20507,34 +20596,34 @@
       </c>
     </row>
     <row r="36" spans="1:20" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="245" t="s">
+      <c r="A36" s="257" t="s">
+        <v>259</v>
+      </c>
+      <c r="B36" s="257" t="s">
+        <v>260</v>
+      </c>
+      <c r="C36" s="260" t="s">
         <v>261</v>
       </c>
-      <c r="B36" s="245" t="s">
+      <c r="D36" s="261"/>
+      <c r="E36" s="262"/>
+      <c r="F36" s="260" t="s">
         <v>262</v>
       </c>
-      <c r="C36" s="248" t="s">
-        <v>263</v>
-      </c>
-      <c r="D36" s="249"/>
-      <c r="E36" s="250"/>
-      <c r="F36" s="248" t="s">
-        <v>264</v>
-      </c>
-      <c r="G36" s="249"/>
-      <c r="H36" s="249"/>
-      <c r="I36" s="249"/>
-      <c r="J36" s="249"/>
-      <c r="K36" s="249"/>
-      <c r="L36" s="249"/>
-      <c r="M36" s="249"/>
-      <c r="N36" s="250"/>
+      <c r="G36" s="261"/>
+      <c r="H36" s="261"/>
+      <c r="I36" s="261"/>
+      <c r="J36" s="261"/>
+      <c r="K36" s="261"/>
+      <c r="L36" s="261"/>
+      <c r="M36" s="261"/>
+      <c r="N36" s="262"/>
       <c r="Q36" s="220" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="R36" s="225"/>
       <c r="S36" s="220" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="T36" s="230">
         <f>22471/T35</f>
@@ -20542,41 +20631,41 @@
       </c>
     </row>
     <row r="37" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="246"/>
-      <c r="B37" s="246"/>
-      <c r="C37" s="245" t="s">
+      <c r="A37" s="258"/>
+      <c r="B37" s="258"/>
+      <c r="C37" s="257" t="s">
+        <v>263</v>
+      </c>
+      <c r="D37" s="257" t="s">
+        <v>264</v>
+      </c>
+      <c r="E37" s="257" t="s">
         <v>265</v>
       </c>
-      <c r="D37" s="245" t="s">
+      <c r="F37" s="260" t="s">
+        <v>245</v>
+      </c>
+      <c r="G37" s="261"/>
+      <c r="H37" s="262"/>
+      <c r="I37" s="260" t="s">
         <v>266</v>
       </c>
-      <c r="E37" s="245" t="s">
+      <c r="J37" s="261"/>
+      <c r="K37" s="262"/>
+      <c r="L37" s="260" t="s">
         <v>267</v>
       </c>
-      <c r="F37" s="248" t="s">
-        <v>247</v>
-      </c>
-      <c r="G37" s="249"/>
-      <c r="H37" s="250"/>
-      <c r="I37" s="248" t="s">
-        <v>268</v>
-      </c>
-      <c r="J37" s="249"/>
-      <c r="K37" s="250"/>
-      <c r="L37" s="248" t="s">
-        <v>269</v>
-      </c>
-      <c r="M37" s="249"/>
-      <c r="N37" s="250"/>
+      <c r="M37" s="261"/>
+      <c r="N37" s="262"/>
       <c r="P37" s="233"/>
       <c r="Q37" s="220" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="R37" s="222">
         <v>13118400</v>
       </c>
       <c r="S37" s="220" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="T37" s="231">
         <f>T35*AB4</f>
@@ -20584,47 +20673,47 @@
       </c>
     </row>
     <row r="38" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="247"/>
-      <c r="B38" s="247"/>
-      <c r="C38" s="247"/>
-      <c r="D38" s="247"/>
-      <c r="E38" s="247"/>
+      <c r="A38" s="259"/>
+      <c r="B38" s="259"/>
+      <c r="C38" s="259"/>
+      <c r="D38" s="259"/>
+      <c r="E38" s="259"/>
       <c r="F38" s="176" t="s">
         <v>21</v>
       </c>
       <c r="G38" s="176" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H38" s="176" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I38" s="176" t="s">
         <v>21</v>
       </c>
       <c r="J38" s="176" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K38" s="176" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L38" s="176" t="s">
         <v>21</v>
       </c>
       <c r="M38" s="176" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="N38" s="169" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="P38" s="233"/>
       <c r="Q38" s="220" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="R38" s="222">
         <v>1725457</v>
       </c>
       <c r="S38" s="220" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="T38" s="232">
         <f>T37*0.000001</f>
@@ -20633,19 +20722,19 @@
     </row>
     <row r="39" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="177" t="s">
+        <v>270</v>
+      </c>
+      <c r="B39" s="178" t="s">
+        <v>271</v>
+      </c>
+      <c r="C39" s="178" t="s">
         <v>272</v>
-      </c>
-      <c r="B39" s="178" t="s">
-        <v>273</v>
-      </c>
-      <c r="C39" s="178" t="s">
-        <v>274</v>
       </c>
       <c r="D39" s="179">
         <v>14977374</v>
       </c>
       <c r="E39" s="178" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F39" s="179">
         <v>25429246</v>
@@ -20654,7 +20743,7 @@
         <v>3</v>
       </c>
       <c r="H39" s="178" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I39" s="181">
         <v>300</v>
@@ -20663,7 +20752,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="178" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L39" s="181">
         <v>449</v>
@@ -20672,16 +20761,16 @@
         <v>1</v>
       </c>
       <c r="N39" s="178" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q39" s="220" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R39" s="222">
         <v>2566044</v>
       </c>
       <c r="S39" s="220" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="T39" s="231">
         <f>S47/T37</f>
@@ -20690,19 +20779,19 @@
     </row>
     <row r="40" spans="1:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="177" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B40" s="178" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C40" s="178" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D40" s="179">
         <v>750271</v>
       </c>
       <c r="E40" s="182" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F40" s="179">
         <v>1420641</v>
@@ -20711,7 +20800,7 @@
         <v>3</v>
       </c>
       <c r="H40" s="178" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I40" s="181">
         <v>25.3</v>
@@ -20720,7 +20809,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="178" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L40" s="181">
         <v>2.5299999999999998</v>
@@ -20729,17 +20818,17 @@
         <v>1</v>
       </c>
       <c r="N40" s="178" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P40" s="233"/>
       <c r="Q40" s="220" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="R40" s="222">
         <v>591940</v>
       </c>
       <c r="S40" s="220" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="T40" s="231">
         <f>S48*0.000001</f>
@@ -20748,19 +20837,19 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="177" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B41" s="178" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C41" s="178" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D41" s="179">
         <v>28640347</v>
       </c>
       <c r="E41" s="178" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F41" s="179">
         <v>1194110</v>
@@ -20769,7 +20858,7 @@
         <v>3</v>
       </c>
       <c r="H41" s="178" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I41" s="181">
         <v>21.3</v>
@@ -20778,7 +20867,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="178" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L41" s="181">
         <v>2.13</v>
@@ -20787,16 +20876,16 @@
         <v>1</v>
       </c>
       <c r="N41" s="178" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q41" s="220" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="R41" s="222">
         <v>45914400</v>
       </c>
       <c r="S41" s="220" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="T41" s="231">
         <f>S49/T37</f>
@@ -20805,19 +20894,19 @@
     </row>
     <row r="42" spans="1:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="177" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B42" s="178" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C42" s="178" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D42" s="179">
         <v>1100948</v>
       </c>
       <c r="E42" s="178" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F42" s="179">
         <v>118860</v>
@@ -20826,7 +20915,7 @@
         <v>3</v>
       </c>
       <c r="H42" s="178" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I42" s="181">
         <v>4.5999999999999996</v>
@@ -20835,7 +20924,7 @@
         <v>1</v>
       </c>
       <c r="K42" s="178" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L42" s="181">
         <v>0.92</v>
@@ -20844,10 +20933,10 @@
         <v>1</v>
       </c>
       <c r="N42" s="178" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q42" s="220" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="R42" s="222">
         <v>125912501</v>
@@ -20855,19 +20944,19 @@
     </row>
     <row r="43" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="177" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B43" s="178" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C43" s="178" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D43" s="179">
         <v>1199845</v>
       </c>
       <c r="E43" s="182" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F43" s="179">
         <v>188429</v>
@@ -20876,7 +20965,7 @@
         <v>3</v>
       </c>
       <c r="H43" s="178" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I43" s="181">
         <v>7.3</v>
@@ -20885,7 +20974,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="178" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L43" s="181">
         <v>1.46</v>
@@ -20894,10 +20983,10 @@
         <v>1</v>
       </c>
       <c r="N43" s="178" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q43" s="220" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R43" s="222">
         <v>109589</v>
@@ -20905,19 +20994,19 @@
     </row>
     <row r="44" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="177" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B44" s="178" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C44" s="178" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D44" s="179">
         <v>177871</v>
       </c>
       <c r="E44" s="182" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F44" s="179">
         <v>68055</v>
@@ -20926,7 +21015,7 @@
         <v>3</v>
       </c>
       <c r="H44" s="178" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I44" s="181">
         <v>1.2</v>
@@ -20935,7 +21024,7 @@
         <v>1</v>
       </c>
       <c r="K44" s="178" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L44" s="181">
         <v>0.12</v>
@@ -20944,10 +21033,10 @@
         <v>1</v>
       </c>
       <c r="N44" s="178" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q44" s="223" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="R44" s="224">
         <v>193217931</v>
@@ -20955,19 +21044,19 @@
     </row>
     <row r="45" spans="1:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="177" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B45" s="178" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C45" s="178" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D45" s="179">
         <v>910988</v>
       </c>
       <c r="E45" s="178" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F45" s="179">
         <v>39454</v>
@@ -20976,7 +21065,7 @@
         <v>3</v>
       </c>
       <c r="H45" s="178" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I45" s="181">
         <v>0.7</v>
@@ -20985,7 +21074,7 @@
         <v>1</v>
       </c>
       <c r="K45" s="178" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L45" s="181">
         <v>7.0000000000000007E-2</v>
@@ -20994,10 +21083,10 @@
         <v>1</v>
       </c>
       <c r="N45" s="178" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q45" s="223" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R45" s="224">
         <v>849137931</v>
@@ -21005,19 +21094,19 @@
     </row>
     <row r="46" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="183" t="s">
+        <v>285</v>
+      </c>
+      <c r="B46" s="184" t="s">
+        <v>286</v>
+      </c>
+      <c r="C46" s="184" t="s">
         <v>287</v>
-      </c>
-      <c r="B46" s="184" t="s">
-        <v>288</v>
-      </c>
-      <c r="C46" s="184" t="s">
-        <v>289</v>
       </c>
       <c r="D46" s="185">
         <v>30042216</v>
       </c>
       <c r="E46" s="186" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F46" s="185">
         <v>23227198</v>
@@ -21026,16 +21115,16 @@
         <v>3</v>
       </c>
       <c r="H46" s="184" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I46" s="184" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J46" s="187">
         <v>3</v>
       </c>
       <c r="K46" s="184" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L46" s="186">
         <v>0</v>
@@ -21044,27 +21133,27 @@
       <c r="N46" s="188"/>
       <c r="Q46" s="233"/>
       <c r="R46" s="233" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="S46" s="233" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="189" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B47" s="190" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C47" s="191" t="s">
+        <v>290</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>291</v>
+      </c>
+      <c r="E47" s="190" t="s">
         <v>292</v>
-      </c>
-      <c r="D47" s="191" t="s">
-        <v>293</v>
-      </c>
-      <c r="E47" s="190" t="s">
-        <v>294</v>
       </c>
       <c r="F47" s="192">
         <v>2027278</v>
@@ -21073,28 +21162,28 @@
         <v>3</v>
       </c>
       <c r="H47" s="190" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I47" s="190" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J47" s="190" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K47" s="190" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L47" s="190" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M47" s="190" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N47" s="190" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q47" s="233" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="R47" s="235">
         <f>R34</f>
@@ -21107,19 +21196,19 @@
     </row>
     <row r="48" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="194" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B48" s="191" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C48" s="191" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D48" s="195">
         <v>177871</v>
       </c>
       <c r="E48" s="196" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F48" s="195">
         <v>309044</v>
@@ -21128,28 +21217,28 @@
         <v>3</v>
       </c>
       <c r="H48" s="191" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I48" s="191" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J48" s="191" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K48" s="191" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L48" s="191" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M48" s="191" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N48" s="191" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q48" s="233" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="R48" s="235">
         <f>T48*R47</f>
@@ -21165,19 +21254,19 @@
     </row>
     <row r="49" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="194" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B49" s="191" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C49" s="191" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D49" s="195">
         <v>182658</v>
       </c>
       <c r="E49" s="191" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F49" s="195">
         <v>15323</v>
@@ -21186,28 +21275,28 @@
         <v>3</v>
       </c>
       <c r="H49" s="191" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I49" s="191" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J49" s="191" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K49" s="191" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L49" s="191" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M49" s="191" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N49" s="191" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q49" s="233" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="R49" s="235">
         <f>R38+R40+R35</f>
@@ -21218,24 +21307,24 @@
         <v>82861777.530945018</v>
       </c>
       <c r="AA49" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="198" t="s">
+        <v>297</v>
+      </c>
+      <c r="B50" s="199" t="s">
+        <v>298</v>
+      </c>
+      <c r="C50" s="199" t="s">
         <v>299</v>
-      </c>
-      <c r="B50" s="199" t="s">
-        <v>300</v>
-      </c>
-      <c r="C50" s="199" t="s">
-        <v>301</v>
       </c>
       <c r="D50" s="200">
         <v>23360</v>
       </c>
       <c r="E50" s="199" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F50" s="200">
         <v>7065</v>
@@ -21244,7 +21333,7 @@
         <v>3</v>
       </c>
       <c r="H50" s="199" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I50" s="202">
         <v>3853</v>
@@ -21253,7 +21342,7 @@
         <v>3</v>
       </c>
       <c r="K50" s="199" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L50" s="203">
         <v>0</v>
@@ -21261,24 +21350,24 @@
       <c r="M50" s="204"/>
       <c r="N50" s="204"/>
       <c r="AA50" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="205" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B51" s="206" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C51" s="199" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D51" s="207">
         <v>119401</v>
       </c>
       <c r="E51" s="199" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F51" s="207">
         <v>180962</v>
@@ -21287,63 +21376,63 @@
         <v>3</v>
       </c>
       <c r="H51" s="206" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I51" s="206" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J51" s="206" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K51" s="206" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L51" s="206" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M51" s="206" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N51" s="206" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AA51" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="209" t="s">
+        <v>303</v>
+      </c>
+      <c r="B52" s="210" t="s">
+        <v>304</v>
+      </c>
+      <c r="C52" s="210" t="s">
         <v>305</v>
-      </c>
-      <c r="B52" s="210" t="s">
-        <v>306</v>
-      </c>
-      <c r="C52" s="210" t="s">
-        <v>307</v>
       </c>
       <c r="D52" s="211">
         <v>643962</v>
       </c>
       <c r="E52" s="210" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F52" s="212" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G52" s="210" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H52" s="210" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I52" s="210" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J52" s="210" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K52" s="210" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L52" s="213">
         <v>692</v>
@@ -21352,24 +21441,24 @@
         <v>3</v>
       </c>
       <c r="N52" s="210" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="209" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B53" s="210" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C53" s="210" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D53" s="211">
         <v>313043</v>
       </c>
       <c r="E53" s="210" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F53" s="211">
         <v>241415</v>
@@ -21378,7 +21467,7 @@
         <v>3</v>
       </c>
       <c r="H53" s="210" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I53" s="213">
         <v>7962</v>
@@ -21387,42 +21476,42 @@
         <v>3</v>
       </c>
       <c r="K53" s="210" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L53" s="210" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M53" s="210" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N53" s="210" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="194" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B54" s="191" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C54" s="191" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D54" s="195">
         <v>40020782</v>
       </c>
       <c r="E54" s="191" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F54" s="197" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G54" s="191" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H54" s="191" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I54" s="215">
         <v>3229</v>
@@ -21431,16 +21520,16 @@
         <v>2</v>
       </c>
       <c r="K54" s="191" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L54" s="191" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M54" s="191" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N54" s="191" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AC54" s="101" t="s">
         <v>184</v>
@@ -21449,33 +21538,33 @@
         <v>8339</v>
       </c>
       <c r="AE54" s="101" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="194" t="s">
+        <v>314</v>
+      </c>
+      <c r="B55" s="191" t="s">
+        <v>315</v>
+      </c>
+      <c r="C55" s="191" t="s">
         <v>316</v>
-      </c>
-      <c r="B55" s="191" t="s">
-        <v>317</v>
-      </c>
-      <c r="C55" s="191" t="s">
-        <v>318</v>
       </c>
       <c r="D55" s="195">
         <v>4555664</v>
       </c>
       <c r="E55" s="196" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F55" s="197" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G55" s="191" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H55" s="191" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I55" s="215">
         <v>243</v>
@@ -21484,95 +21573,95 @@
         <v>2</v>
       </c>
       <c r="K55" s="191" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L55" s="191" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M55" s="191" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N55" s="191" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AC55" s="101" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AD55">
         <v>1520</v>
       </c>
       <c r="AE55" s="101" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="B56" s="199" t="s">
+        <v>319</v>
+      </c>
+      <c r="C56" s="199" t="s">
         <v>320</v>
       </c>
-      <c r="B56" s="199" t="s">
+      <c r="D56" s="199" t="s">
         <v>321</v>
       </c>
-      <c r="C56" s="199" t="s">
-        <v>322</v>
-      </c>
-      <c r="D56" s="199" t="s">
-        <v>323</v>
-      </c>
       <c r="E56" s="199" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F56" s="199" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G56" s="199" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H56" s="199" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I56" s="199" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J56" s="199" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K56" s="199" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L56" s="199" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M56" s="199" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N56" s="199" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AC56" s="101" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AD56">
         <v>7100</v>
       </c>
       <c r="AE56" s="101" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="177" t="s">
+        <v>322</v>
+      </c>
+      <c r="B57" s="178" t="s">
+        <v>323</v>
+      </c>
+      <c r="C57" s="178" t="s">
         <v>324</v>
-      </c>
-      <c r="B57" s="178" t="s">
-        <v>325</v>
-      </c>
-      <c r="C57" s="178" t="s">
-        <v>326</v>
       </c>
       <c r="D57" s="179">
         <v>245406</v>
       </c>
       <c r="E57" s="178" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F57" s="179">
         <v>19410</v>
@@ -21581,61 +21670,61 @@
         <v>1</v>
       </c>
       <c r="H57" s="178" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I57" s="178" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J57" s="178" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K57" s="178" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L57" s="178" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M57" s="178" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N57" s="178" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="AC58" s="101" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AD58">
         <f>AD55/AD54</f>
         <v>0.18227605228444657</v>
       </c>
       <c r="AE58" s="101" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="AC59" s="101" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AD59">
         <f>(AD55*AB8)/(AD54*AB4)</f>
         <v>1.1634641635177441</v>
       </c>
       <c r="AE59" s="101" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="AC61" s="101" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AD61">
         <f>AB4</f>
         <v>18.8</v>
       </c>
       <c r="AE61" s="101" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.2">
@@ -21647,21 +21736,11 @@
         <v>120</v>
       </c>
       <c r="AE62" s="101" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:N31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:N32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:N33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:N34"/>
-    <mergeCell ref="A35:N35"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="C36:E36"/>
@@ -21672,8 +21751,18 @@
     <mergeCell ref="F37:H37"/>
     <mergeCell ref="I37:K37"/>
     <mergeCell ref="L37:N37"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:N33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:N34"/>
+    <mergeCell ref="A35:N35"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:N31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:N32"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="S25" r:id="rId1" xr:uid="{E7133682-BFDD-4AF0-B515-8A3EC0F9C42B}"/>
   </hyperlinks>
@@ -21770,7 +21859,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -21779,8 +21868,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -21799,32 +21913,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet"/>
+        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -21888,18 +21977,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71683" r:id="rId4" name="cmdCommUnit">
+        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -21908,7 +21997,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71683" r:id="rId4" name="cmdCommUnit"/>
+        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -21938,18 +22027,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="71683" r:id="rId8" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -21958,7 +22047,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="71683" r:id="rId8" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22037,11 +22126,11 @@
       <c r="A9" s="48"/>
       <c r="B9" s="48" t="str">
         <f>RES!E2</f>
-        <v>ICPGAS</v>
+        <v>ICPGMU</v>
       </c>
       <c r="C9" s="48" t="str">
         <f>RES!E3</f>
-        <v>Industry Chemicals Gas</v>
+        <v>Industry-CP-Material use Gas</v>
       </c>
       <c r="D9" s="54" t="s">
         <v>117</v>
@@ -22081,7 +22170,7 @@
         <v>117</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -22104,16 +22193,16 @@
     <row r="13" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
       <c r="B13" s="48" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D13" s="54" t="s">
         <v>117</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -22179,15 +22268,15 @@
         <v>117</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="19" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D18" s="54" t="s">
         <v>117</v>
@@ -22207,10 +22296,10 @@
     <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="48"/>
       <c r="B20" s="48" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D20" s="54" t="s">
         <v>121</v>
@@ -22222,10 +22311,10 @@
     <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="48"/>
       <c r="B21" s="48" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D21" s="54" t="s">
         <v>121</v>
@@ -22243,18 +22332,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="125955" r:id="rId4" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -22263,7 +22352,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="125955" r:id="rId4" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -22293,18 +22382,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125955" r:id="rId8" name="cmdCommUnit">
+        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -22313,7 +22402,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125955" r:id="rId8" name="cmdCommUnit"/>
+        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22389,18 +22478,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="80899" r:id="rId4" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -22409,7 +22498,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="80899" r:id="rId4" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -22439,18 +22528,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80899" r:id="rId8" name="cmdProcUnits">
+        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -22459,7 +22548,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80899" r:id="rId8" name="cmdProcUnits"/>
+        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22538,18 +22627,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -22558,7 +22647,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit"/>
+        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -22588,18 +22677,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -22608,7 +22697,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets"/>
+        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/SATIM/DataSpreadsheets/TCH_NH3.xlsx
+++ b/SATIM/DataSpreadsheets/TCH_NH3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uctcloud-my.sharepoint.com/personal/01405439_wf_uct_ac_za/Documents/Energy Systems Research Group/Models/SATIMGE/SATIM/DataSpreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{2C9F0FE2-7E37-46F0-9C64-A4CBA3702D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{003F5407-B4B8-4594-AABA-043BDD8969D1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6FB769-2D35-466D-A7F1-5FEBE661517A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" firstSheet="1" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3205,42 +3205,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" xfId="21"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3259,10 +3227,42 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" xfId="21"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Bad" xfId="21" builtinId="27"/>
@@ -3404,7 +3404,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3536,7 +3536,7 @@
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3624,7 +3624,7 @@
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3668,7 +3668,7 @@
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11158,9 +11158,9 @@
       <sheetName val="ANSv2-692-Constraints"/>
       <sheetName val="ANSv2-692-CommData"/>
       <sheetName val="CommData_BASE"/>
+      <sheetName val="ProcData_exportLevels"/>
       <sheetName val="Processes_BASE"/>
       <sheetName val="ANSv2-692-ProcData"/>
-      <sheetName val="ProcData_exportLevels"/>
       <sheetName val="ProcData_exportPrices"/>
       <sheetName val="Exports summary"/>
       <sheetName val="Scenarios"/>
@@ -11693,52 +11693,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12289" r:id="rId4" name="cmdUpdate">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId5">
+        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12289" r:id="rId4" name="cmdUpdate"/>
+        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet"/>
+        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11768,52 +11768,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId11">
+        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon"/>
+        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+        <control shapeId="12289" r:id="rId12" name="cmdUpdate">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon"/>
+        <control shapeId="12289" r:id="rId12" name="cmdUpdate"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11875,44 +11875,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet">
+        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -11920,7 +11895,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1"/>
+        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90113" r:id="rId6" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90113" r:id="rId6" name="cmdAddParameter"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11950,44 +11950,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90113" r:id="rId10" name="cmdAddParameter">
+        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90113" r:id="rId10" name="cmdAddParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -11995,7 +11970,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2"/>
+        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12107,52 +12107,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="126977" r:id="rId4" name="cmdAddParameter">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2"/>
+        <control shapeId="126977" r:id="rId4" name="cmdAddParameter"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet">
+        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet"/>
+        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -12182,52 +12182,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc">
+        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc"/>
+        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126977" r:id="rId12" name="cmdAddParameter">
+        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126977" r:id="rId12" name="cmdAddParameter"/>
+        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12735,18 +12735,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128003" r:id="rId4" name="cmdProcUnits">
+        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -12755,7 +12755,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128003" r:id="rId4" name="cmdProcUnits"/>
+        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -12785,18 +12785,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="128003" r:id="rId8" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -12805,7 +12805,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="128003" r:id="rId8" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12891,18 +12891,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc">
+        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -12911,57 +12936,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc"/>
+        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113666" r:id="rId6" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113666" r:id="rId6" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113667" r:id="rId8" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113667" r:id="rId8" name="cmdCommOUT"/>
+        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -12991,43 +12991,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1">
+        <control shapeId="113667" r:id="rId12" name="cmdCommOUT">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -13036,32 +13011,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet"/>
+        <control shapeId="113667" r:id="rId12" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+        <control shapeId="113666" r:id="rId14" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2"/>
+        <control shapeId="113666" r:id="rId14" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -13195,43 +13195,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="130055" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="130049" r:id="rId4" name="cmdTechNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="130055" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="130054" r:id="rId6" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>628650</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -13240,32 +13215,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="130054" r:id="rId6" name="cmdCheckTechDataSheet"/>
+        <control shapeId="130049" r:id="rId4" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="130053" r:id="rId8" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="130050" r:id="rId6" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="130053" r:id="rId8" name="cmdAddParamQualifier1"/>
+        <control shapeId="130050" r:id="rId6" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="130051" r:id="rId8" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="130051" r:id="rId8" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -13295,18 +13295,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="130051" r:id="rId12" name="cmdCommOUT">
+        <control shapeId="130053" r:id="rId12" name="cmdAddParamQualifier1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="130053" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="130054" r:id="rId14" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -13315,57 +13340,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="130051" r:id="rId12" name="cmdCommOUT"/>
+        <control shapeId="130054" r:id="rId14" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="130050" r:id="rId14" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="130055" r:id="rId16" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="130050" r:id="rId14" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="130049" r:id="rId16" name="cmdTechNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>628650</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="130049" r:id="rId16" name="cmdTechNameAndDesc"/>
+        <control shapeId="130055" r:id="rId16" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -13380,10 +13380,10 @@
   <dimension ref="A1:AI22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="7" topLeftCell="S8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="AB15" sqref="AB15"/>
+      <selection pane="bottomRight" activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13891,7 +13891,7 @@
       <c r="AC11" s="53">
         <v>1</v>
       </c>
-      <c r="AI11" s="264">
+      <c r="AI11" s="246">
         <v>5000</v>
       </c>
     </row>
@@ -14024,11 +14024,11 @@
       </c>
       <c r="Q15" s="241">
         <f t="shared" ref="Q15:U15" si="0">Q19</f>
-        <v>388.42755940800004</v>
+        <v>37.989473116139997</v>
       </c>
       <c r="R15" s="241">
-        <f t="shared" si="0"/>
-        <v>176.54175110265922</v>
+        <f>R19*5</f>
+        <v>882.70875551329607</v>
       </c>
       <c r="S15" s="12"/>
       <c r="T15" s="241">
@@ -14190,7 +14190,7 @@
       </c>
       <c r="Q19" s="236">
         <f>EB_Exist!T40</f>
-        <v>388.42755940800004</v>
+        <v>37.989473116139997</v>
       </c>
       <c r="R19" s="236">
         <f>EB_Exist!T41</f>
@@ -14347,18 +14347,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157697" r:id="rId4" name="cmdTechNameAndDesc">
+        <control shapeId="157703" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="157703" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="157702" r:id="rId6" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>847725</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -14367,57 +14392,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157697" r:id="rId4" name="cmdTechNameAndDesc"/>
+        <control shapeId="157702" r:id="rId6" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157698" r:id="rId6" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="157701" r:id="rId8" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157698" r:id="rId6" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="157699" r:id="rId8" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="157699" r:id="rId8" name="cmdCommOUT"/>
+        <control shapeId="157701" r:id="rId8" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14447,43 +14447,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157701" r:id="rId12" name="cmdAddParamQualifier1">
+        <control shapeId="157699" r:id="rId12" name="cmdCommOUT">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="157701" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="157702" r:id="rId14" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -14492,32 +14467,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157702" r:id="rId14" name="cmdCheckTechDataSheet"/>
+        <control shapeId="157699" r:id="rId12" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157703" r:id="rId16" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+        <control shapeId="157698" r:id="rId14" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157703" r:id="rId16" name="cmdAddParamQualifier2"/>
+        <control shapeId="157698" r:id="rId14" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="157697" r:id="rId16" name="cmdTechNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>847725</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="157697" r:id="rId16" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -14875,8 +14875,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102407" r:id="rId8" name="cmdCommName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102407" r:id="rId8" name="cmdCommName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102403" r:id="rId14" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102403" r:id="rId14" name="cmdAddParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102402" r:id="rId16" name="cmdProcName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102402" r:id="rId16" name="cmdProcName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -14895,182 +15070,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102402" r:id="rId6" name="cmdProcName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102402" r:id="rId6" name="cmdProcName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102403" r:id="rId8" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102403" r:id="rId8" name="cmdAddParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102407" r:id="rId14" name="cmdCommName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102407" r:id="rId14" name="cmdCommName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2"/>
+        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15222,8 +15222,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet">
+        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -15242,82 +15317,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets"/>
+        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15394,8 +15394,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -15414,232 +15639,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode"/>
+        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15706,8 +15706,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet">
+        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -15726,182 +15901,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6"/>
+        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15910,7 +15910,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C52CBF-4FE0-46D1-B70B-95F07BE7C2F3}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="B3:E27"/>
@@ -16133,8 +16133,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears">
+        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>857250</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -16153,232 +16378,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode"/>
+        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -16468,8 +16468,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears">
+        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>838200</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -16488,232 +16713,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>838200</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet"/>
+        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -16793,8 +16793,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet">
+        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -16813,182 +16988,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6"/>
+        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17077,8 +17077,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears">
+        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -17097,232 +17322,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode"/>
+        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17377,7 +17377,7 @@
     </row>
     <row r="2" spans="3:31" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="74"/>
-      <c r="E2" s="263" t="s">
+      <c r="E2" s="245" t="s">
         <v>406</v>
       </c>
       <c r="F2" s="157" t="s">
@@ -17416,7 +17416,7 @@
       <c r="C3" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="263" t="s">
+      <c r="E3" s="245" t="s">
         <v>407</v>
       </c>
       <c r="F3" s="157" t="s">
@@ -19652,8 +19652,8 @@
   </sheetPr>
   <dimension ref="A1:AE62"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="E31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20409,15 +20409,15 @@
       </c>
     </row>
     <row r="30" spans="1:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="245" t="s">
+      <c r="A30" s="262" t="s">
         <v>250</v>
       </c>
-      <c r="B30" s="246"/>
-      <c r="C30" s="246"/>
-      <c r="D30" s="246"/>
-      <c r="E30" s="246"/>
-      <c r="F30" s="246"/>
-      <c r="G30" s="247"/>
+      <c r="B30" s="263"/>
+      <c r="C30" s="263"/>
+      <c r="D30" s="263"/>
+      <c r="E30" s="263"/>
+      <c r="F30" s="263"/>
+      <c r="G30" s="264"/>
       <c r="H30" s="174"/>
       <c r="I30" s="174"/>
       <c r="J30" s="174"/>
@@ -20437,24 +20437,24 @@
       </c>
     </row>
     <row r="31" spans="1:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="248" t="s">
+      <c r="A31" s="253" t="s">
         <v>251</v>
       </c>
-      <c r="B31" s="249"/>
-      <c r="C31" s="250" t="s">
+      <c r="B31" s="254"/>
+      <c r="C31" s="258" t="s">
         <v>252</v>
       </c>
-      <c r="D31" s="251"/>
-      <c r="E31" s="251"/>
-      <c r="F31" s="251"/>
-      <c r="G31" s="251"/>
-      <c r="H31" s="251"/>
-      <c r="I31" s="251"/>
-      <c r="J31" s="251"/>
-      <c r="K31" s="251"/>
-      <c r="L31" s="251"/>
-      <c r="M31" s="251"/>
-      <c r="N31" s="252"/>
+      <c r="D31" s="259"/>
+      <c r="E31" s="259"/>
+      <c r="F31" s="259"/>
+      <c r="G31" s="259"/>
+      <c r="H31" s="259"/>
+      <c r="I31" s="259"/>
+      <c r="J31" s="259"/>
+      <c r="K31" s="259"/>
+      <c r="L31" s="259"/>
+      <c r="M31" s="259"/>
+      <c r="N31" s="260"/>
       <c r="Q31" s="220" t="s">
         <v>341</v>
       </c>
@@ -20469,24 +20469,24 @@
       </c>
     </row>
     <row r="32" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="248" t="s">
+      <c r="A32" s="253" t="s">
         <v>253</v>
       </c>
-      <c r="B32" s="249"/>
-      <c r="C32" s="253">
+      <c r="B32" s="254"/>
+      <c r="C32" s="255">
         <v>170500107</v>
       </c>
-      <c r="D32" s="254"/>
-      <c r="E32" s="254"/>
-      <c r="F32" s="254"/>
-      <c r="G32" s="254"/>
-      <c r="H32" s="254"/>
-      <c r="I32" s="254"/>
-      <c r="J32" s="254"/>
-      <c r="K32" s="254"/>
-      <c r="L32" s="254"/>
-      <c r="M32" s="254"/>
-      <c r="N32" s="255"/>
+      <c r="D32" s="256"/>
+      <c r="E32" s="256"/>
+      <c r="F32" s="256"/>
+      <c r="G32" s="256"/>
+      <c r="H32" s="256"/>
+      <c r="I32" s="256"/>
+      <c r="J32" s="256"/>
+      <c r="K32" s="256"/>
+      <c r="L32" s="256"/>
+      <c r="M32" s="256"/>
+      <c r="N32" s="257"/>
       <c r="Q32" s="220" t="s">
         <v>343</v>
       </c>
@@ -20501,24 +20501,24 @@
       </c>
     </row>
     <row r="33" spans="1:20" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="248" t="s">
+      <c r="A33" s="253" t="s">
         <v>254</v>
       </c>
-      <c r="B33" s="249"/>
-      <c r="C33" s="253" t="s">
+      <c r="B33" s="254"/>
+      <c r="C33" s="255" t="s">
         <v>255</v>
       </c>
-      <c r="D33" s="254"/>
-      <c r="E33" s="254"/>
-      <c r="F33" s="254"/>
-      <c r="G33" s="254"/>
-      <c r="H33" s="254"/>
-      <c r="I33" s="254"/>
-      <c r="J33" s="254"/>
-      <c r="K33" s="254"/>
-      <c r="L33" s="254"/>
-      <c r="M33" s="254"/>
-      <c r="N33" s="255"/>
+      <c r="D33" s="256"/>
+      <c r="E33" s="256"/>
+      <c r="F33" s="256"/>
+      <c r="G33" s="256"/>
+      <c r="H33" s="256"/>
+      <c r="I33" s="256"/>
+      <c r="J33" s="256"/>
+      <c r="K33" s="256"/>
+      <c r="L33" s="256"/>
+      <c r="M33" s="256"/>
+      <c r="N33" s="257"/>
       <c r="Q33" s="220" t="s">
         <v>344</v>
       </c>
@@ -20533,24 +20533,24 @@
       </c>
     </row>
     <row r="34" spans="1:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="248" t="s">
+      <c r="A34" s="253" t="s">
         <v>256</v>
       </c>
-      <c r="B34" s="249"/>
-      <c r="C34" s="250" t="s">
+      <c r="B34" s="254"/>
+      <c r="C34" s="258" t="s">
         <v>257</v>
       </c>
-      <c r="D34" s="251"/>
-      <c r="E34" s="251"/>
-      <c r="F34" s="251"/>
-      <c r="G34" s="251"/>
-      <c r="H34" s="251"/>
-      <c r="I34" s="251"/>
-      <c r="J34" s="251"/>
-      <c r="K34" s="251"/>
-      <c r="L34" s="251"/>
-      <c r="M34" s="251"/>
-      <c r="N34" s="252"/>
+      <c r="D34" s="259"/>
+      <c r="E34" s="259"/>
+      <c r="F34" s="259"/>
+      <c r="G34" s="259"/>
+      <c r="H34" s="259"/>
+      <c r="I34" s="259"/>
+      <c r="J34" s="259"/>
+      <c r="K34" s="259"/>
+      <c r="L34" s="259"/>
+      <c r="M34" s="259"/>
+      <c r="N34" s="260"/>
       <c r="Q34" s="223" t="s">
         <v>345</v>
       </c>
@@ -20565,22 +20565,22 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="248" t="s">
+      <c r="A35" s="253" t="s">
         <v>258</v>
       </c>
-      <c r="B35" s="256"/>
-      <c r="C35" s="256"/>
-      <c r="D35" s="256"/>
-      <c r="E35" s="256"/>
-      <c r="F35" s="256"/>
-      <c r="G35" s="256"/>
-      <c r="H35" s="256"/>
-      <c r="I35" s="256"/>
-      <c r="J35" s="256"/>
-      <c r="K35" s="256"/>
-      <c r="L35" s="256"/>
-      <c r="M35" s="256"/>
-      <c r="N35" s="249"/>
+      <c r="B35" s="261"/>
+      <c r="C35" s="261"/>
+      <c r="D35" s="261"/>
+      <c r="E35" s="261"/>
+      <c r="F35" s="261"/>
+      <c r="G35" s="261"/>
+      <c r="H35" s="261"/>
+      <c r="I35" s="261"/>
+      <c r="J35" s="261"/>
+      <c r="K35" s="261"/>
+      <c r="L35" s="261"/>
+      <c r="M35" s="261"/>
+      <c r="N35" s="254"/>
       <c r="Q35" s="220" t="s">
         <v>346</v>
       </c>
@@ -20596,28 +20596,28 @@
       </c>
     </row>
     <row r="36" spans="1:20" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="257" t="s">
+      <c r="A36" s="247" t="s">
         <v>259</v>
       </c>
-      <c r="B36" s="257" t="s">
+      <c r="B36" s="247" t="s">
         <v>260</v>
       </c>
-      <c r="C36" s="260" t="s">
+      <c r="C36" s="250" t="s">
         <v>261</v>
       </c>
-      <c r="D36" s="261"/>
-      <c r="E36" s="262"/>
-      <c r="F36" s="260" t="s">
+      <c r="D36" s="251"/>
+      <c r="E36" s="252"/>
+      <c r="F36" s="250" t="s">
         <v>262</v>
       </c>
-      <c r="G36" s="261"/>
-      <c r="H36" s="261"/>
-      <c r="I36" s="261"/>
-      <c r="J36" s="261"/>
-      <c r="K36" s="261"/>
-      <c r="L36" s="261"/>
-      <c r="M36" s="261"/>
-      <c r="N36" s="262"/>
+      <c r="G36" s="251"/>
+      <c r="H36" s="251"/>
+      <c r="I36" s="251"/>
+      <c r="J36" s="251"/>
+      <c r="K36" s="251"/>
+      <c r="L36" s="251"/>
+      <c r="M36" s="251"/>
+      <c r="N36" s="252"/>
       <c r="Q36" s="220" t="s">
         <v>347</v>
       </c>
@@ -20631,32 +20631,32 @@
       </c>
     </row>
     <row r="37" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="258"/>
-      <c r="B37" s="258"/>
-      <c r="C37" s="257" t="s">
+      <c r="A37" s="248"/>
+      <c r="B37" s="248"/>
+      <c r="C37" s="247" t="s">
         <v>263</v>
       </c>
-      <c r="D37" s="257" t="s">
+      <c r="D37" s="247" t="s">
         <v>264</v>
       </c>
-      <c r="E37" s="257" t="s">
+      <c r="E37" s="247" t="s">
         <v>265</v>
       </c>
-      <c r="F37" s="260" t="s">
+      <c r="F37" s="250" t="s">
         <v>245</v>
       </c>
-      <c r="G37" s="261"/>
-      <c r="H37" s="262"/>
-      <c r="I37" s="260" t="s">
+      <c r="G37" s="251"/>
+      <c r="H37" s="252"/>
+      <c r="I37" s="250" t="s">
         <v>266</v>
       </c>
-      <c r="J37" s="261"/>
-      <c r="K37" s="262"/>
-      <c r="L37" s="260" t="s">
+      <c r="J37" s="251"/>
+      <c r="K37" s="252"/>
+      <c r="L37" s="250" t="s">
         <v>267</v>
       </c>
-      <c r="M37" s="261"/>
-      <c r="N37" s="262"/>
+      <c r="M37" s="251"/>
+      <c r="N37" s="252"/>
       <c r="P37" s="233"/>
       <c r="Q37" s="220" t="s">
         <v>348</v>
@@ -20673,11 +20673,11 @@
       </c>
     </row>
     <row r="38" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="259"/>
-      <c r="B38" s="259"/>
-      <c r="C38" s="259"/>
-      <c r="D38" s="259"/>
-      <c r="E38" s="259"/>
+      <c r="A38" s="249"/>
+      <c r="B38" s="249"/>
+      <c r="C38" s="249"/>
+      <c r="D38" s="249"/>
+      <c r="E38" s="249"/>
       <c r="F38" s="176" t="s">
         <v>21</v>
       </c>
@@ -20832,7 +20832,7 @@
       </c>
       <c r="T40" s="231">
         <f>S48*0.000001</f>
-        <v>388.42755940800004</v>
+        <v>37.989473116139997</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -21241,12 +21241,12 @@
         <v>371</v>
       </c>
       <c r="R48" s="235">
-        <f>T48*R47</f>
-        <v>26236800</v>
+        <f>R39</f>
+        <v>2566044</v>
       </c>
       <c r="S48" s="235">
         <f>R48*$R$26*$R$25</f>
-        <v>388427559.40800005</v>
+        <v>37989473.116140001</v>
       </c>
       <c r="T48" s="234">
         <v>0.04</v>
@@ -21741,6 +21741,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:N31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:N32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:N33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:N34"/>
+    <mergeCell ref="A35:N35"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="C36:E36"/>
@@ -21751,16 +21761,6 @@
     <mergeCell ref="F37:H37"/>
     <mergeCell ref="I37:K37"/>
     <mergeCell ref="L37:N37"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:N33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:N34"/>
-    <mergeCell ref="A35:N35"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:N31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:N32"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
@@ -21868,8 +21868,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet">
+        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -21888,32 +21913,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets"/>
+        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -21977,18 +21977,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="71683" r:id="rId4" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -21997,7 +21997,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="71683" r:id="rId4" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -22027,18 +22027,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71683" r:id="rId8" name="cmdCommUnit">
+        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -22047,7 +22047,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71683" r:id="rId8" name="cmdCommUnit"/>
+        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22332,18 +22332,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125955" r:id="rId4" name="cmdCommUnit">
+        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -22352,7 +22352,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125955" r:id="rId4" name="cmdCommUnit"/>
+        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -22382,18 +22382,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="125955" r:id="rId8" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -22402,7 +22402,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="125955" r:id="rId8" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22478,18 +22478,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80899" r:id="rId4" name="cmdProcUnits">
+        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -22498,7 +22498,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80899" r:id="rId4" name="cmdProcUnits"/>
+        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -22528,18 +22528,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="80899" r:id="rId8" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -22548,7 +22548,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="80899" r:id="rId8" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22627,18 +22627,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -22647,7 +22647,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets"/>
+        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -22677,18 +22677,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -22697,7 +22697,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit"/>
+        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/SATIM/DataSpreadsheets/TCH_NH3.xlsx
+++ b/SATIM/DataSpreadsheets/TCH_NH3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6FB769-2D35-466D-A7F1-5FEBE661517A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F8B8D9-D861-4277-9935-59E5C5D98F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" firstSheet="1" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
